--- a/biology/Zoologie/Eurycère_de_Prévost/Eurycère_de_Prévost.xlsx
+++ b/biology/Zoologie/Eurycère_de_Prévost/Eurycère_de_Prévost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Euryc%C3%A8re_de_Pr%C3%A9vost</t>
+          <t>Eurycère_de_Prévost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryceros prevostii
 L'Eurycère de Prévost (Euryceros prevostii) est une espèce de passereau de la famille des Vangidae, seul représentante du genre Euryceros.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Euryc%C3%A8re_de_Pr%C3%A9vost</t>
+          <t>Eurycère_de_Prévost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède un plumage bicolore noir et roux et un énorme bec busqué bleu clair nacré avec des commissures noires (51 mm de long et 30 mm de haut, dont l'arête supérieure est située plus haut que le sommet de crâne). Sa tête est entièrement noire, tout comme la poitrine, le ventre et les rémiges.
 Il mesure entre 28 et 30,5 cm.
